--- a/Kelulusan Train.xlsx
+++ b/Kelulusan Train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM 4\kecerdasan artifisial\TugasTeori\prediksi-kelulusan-mahasiswa-streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E35583-CF4C-43C0-B7C6-2207DC54309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34EFA7-A19E-45CD-9E85-921E070A1B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00203DDC-54F0-4C82-8ACC-7B0C6931A8BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00203DDC-54F0-4C82-8ACC-7B0C6931A8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1565,19 +1565,19 @@
   <dimension ref="A1:O380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>111</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>112</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>130</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>135</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>137</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>139</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>140</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>141</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>143</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>146</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>148</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>150</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>151</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>153</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>154</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>156</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>203</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>206</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>207</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>210</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>211</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>212</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>213</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>214</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>219</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>220</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>221</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>222</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>224</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>228</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>229</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>230</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>231</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>232</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>233</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>236</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>237</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>238</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>241</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>243</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>246</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>247</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>250</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>251</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>252</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>254</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>255</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>256</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>258</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>259</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>260</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>261</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>263</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>265</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>266</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>268</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>269</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>271</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>272</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>273</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>274</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>275</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>276</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>277</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>278</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>279</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>280</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>281</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>283</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>284</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>285</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>286</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>287</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>288</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>289</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>290</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>291</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>292</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>293</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>294</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>295</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>297</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>298</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>299</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>300</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>301</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>302</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>303</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>304</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>305</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>306</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>307</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>308</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>309</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>154</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -16126,7 +16126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>381</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>382</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>383</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>384</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>385</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>386</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>387</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>388</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>389</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>390</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>391</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>392</v>
       </c>
@@ -19125,7 +19125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>393</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>394</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>395</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>396</v>
       </c>
@@ -19313,7 +19313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>397</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>398</v>
       </c>
